--- a/data/trans_orig/IP11B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E75DE05-BA6A-478F-A37A-943E6211FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D039AE9E-BE1E-4D1D-9A22-DFB93F2E64B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3426FFF9-F897-4BAA-A183-57CAADD8F00B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{13C3CBA3-FD18-4C0B-B63D-CBE564C4D64C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,57 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Quemaduras</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>Fracturas</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
     <t>Contusiones, hematomas, esguinces, luxaciones</t>
   </si>
   <si>
@@ -101,42 +152,6 @@
     <t>87,38%</t>
   </si>
   <si>
-    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>Fracturas</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
     <t>Heridas profundas</t>
   </si>
   <si>
@@ -182,27 +197,147 @@
     <t>18,15%</t>
   </si>
   <si>
-    <t>Quemaduras</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
     <t>65,87%</t>
   </si>
   <si>
@@ -230,36 +365,6 @@
     <t>80,84%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
     <t>6,67%</t>
   </si>
   <si>
@@ -284,9 +389,6 @@
     <t>20,98%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
     <t>18,76%</t>
   </si>
   <si>
@@ -302,106 +404,64 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>68,7%</t>
@@ -431,48 +491,6 @@
     <t>75,77%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
     <t>14,0%</t>
   </si>
   <si>
@@ -521,27 +539,60 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
     <t>68,8%</t>
   </si>
   <si>
@@ -569,39 +620,6 @@
     <t>80,74%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
     <t>7,61%</t>
   </si>
   <si>
@@ -647,22 +665,169 @@
     <t>23,58%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>61,08%</t>
@@ -692,39 +857,6 @@
     <t>77,91%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
     <t>6,62%</t>
   </si>
   <si>
@@ -755,136 +887,61 @@
     <t>12,42%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>65,38%</t>
@@ -914,45 +971,6 @@
     <t>76,11%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
     <t>7,64%</t>
   </si>
   <si>
@@ -995,27 +1013,48 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
     <t>Menores según lesión producida por el accidente en 2015 (Tasa respuesta: 4,42%)</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
     <t>49,16%</t>
   </si>
   <si>
@@ -1040,24 +1079,6 @@
     <t>69,5%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
     <t>24,27%</t>
   </si>
   <si>
@@ -1067,9 +1088,6 @@
     <t>57,43%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
     <t>5,29%</t>
   </si>
   <si>
@@ -1082,28 +1100,157 @@
     <t>45,34%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
     <t>79,6%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>73,88%</t>
@@ -1130,33 +1277,6 @@
     <t>84,29%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
     <t>6,69%</t>
   </si>
   <si>
@@ -1172,124 +1292,67 @@
     <t>17,22%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>68,05%</t>
@@ -1319,45 +1382,6 @@
     <t>73,56%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
     <t>9,66%</t>
   </si>
   <si>
@@ -1394,33 +1418,36 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
     <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
   </si>
   <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
     <t>25,04%</t>
   </si>
   <si>
@@ -1430,39 +1457,12 @@
     <t>45,6%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>32,47%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
     <t>27,75%</t>
   </si>
   <si>
@@ -1487,6 +1487,117 @@
     <t>73,74%</t>
   </si>
   <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
     <t>56,26%</t>
   </si>
   <si>
@@ -1511,30 +1622,6 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
     <t>8,11%</t>
   </si>
   <si>
@@ -1556,91 +1643,28 @@
     <t>21,93%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>48,8%</t>
@@ -1668,30 +1692,6 @@
   </si>
   <si>
     <t>68,19%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
   </si>
   <si>
     <t>18,99%</t>
@@ -2131,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE2E47-FE23-4C78-882A-195A8547A620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3273E6A9-DE83-48EC-AEDF-A27EC7C9B5F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2249,10 +2249,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13343</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2264,91 +2264,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19553</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>650</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>650</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2372,13 +2372,13 @@
         <v>1876</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2387,163 +2387,163 @@
         <v>1876</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13343</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6210</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1279</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>30</v>
+      </c>
+      <c r="N7" s="7">
+        <v>19553</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>665</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1944</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1279</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>665</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1855</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1855</v>
+        <v>1944</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1855</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>650</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1855</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>650</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>51</v>
@@ -2608,55 +2608,55 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>12865</v>
+        <v>725</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11326</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>725</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="7">
-        <v>36</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24192</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2665,193 +2665,193 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>674</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>674</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>4685</v>
+        <v>1309</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1258</v>
+        <v>1491</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2799</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5943</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>1302</v>
+        <v>5752</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5638</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2166</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7">
+        <v>11390</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3468</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>680</v>
+        <v>3935</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1414</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>732</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>8</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5348</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="7">
-        <v>2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1411</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>86</v>
@@ -2860,7 +2860,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2869,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,10 +2914,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>19532</v>
+        <v>11721</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>52</v>
@@ -2929,10 +2929,10 @@
         <v>52</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>15482</v>
+        <v>9216</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>52</v>
@@ -2944,10 +2944,10 @@
         <v>52</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>35014</v>
+        <v>20937</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>52</v>
@@ -2961,76 +2961,76 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>5752</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5638</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="7">
-        <v>17</v>
-      </c>
-      <c r="N18" s="7">
-        <v>11390</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3039,229 +3039,229 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>1309</v>
+        <v>4685</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1491</v>
+        <v>1258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>2799</v>
+        <v>5943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7">
-        <v>3935</v>
+        <v>12865</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11326</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1414</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N21" s="7">
-        <v>5348</v>
+        <v>24192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2166</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3468</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>118</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>674</v>
+        <v>1411</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>120</v>
@@ -3273,10 +3273,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>11721</v>
+        <v>19532</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>52</v>
@@ -3288,10 +3288,10 @@
         <v>52</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>9216</v>
+        <v>15482</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>52</v>
@@ -3303,10 +3303,10 @@
         <v>52</v>
       </c>
       <c r="M24" s="7">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N24" s="7">
-        <v>20937</v>
+        <v>35014</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>52</v>
@@ -3326,106 +3326,106 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>31961</v>
+        <v>725</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="7">
-        <v>35</v>
-      </c>
-      <c r="I25" s="7">
-        <v>23173</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>725</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="7">
-        <v>83</v>
-      </c>
-      <c r="N25" s="7">
-        <v>55135</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>674</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1324</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>725</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>9</v>
@@ -3434,13 +3434,13 @@
         <v>5993</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3449,13 +3449,13 @@
         <v>4625</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -3464,163 +3464,163 @@
         <v>10619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D28" s="7">
-        <v>6515</v>
+        <v>31961</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="7">
+        <v>35</v>
+      </c>
+      <c r="I28" s="7">
+        <v>23173</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4245</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>83</v>
+      </c>
+      <c r="N28" s="7">
+        <v>55135</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M28" s="7">
-        <v>16</v>
-      </c>
-      <c r="N28" s="7">
-        <v>10760</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>680</v>
+        <v>6515</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4245</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="7">
-        <v>4</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2587</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10760</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="7">
-        <v>5</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3266</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2587</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>674</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>5</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3266</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M30" s="7">
-        <v>2</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1324</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>165</v>
@@ -3693,7 +3693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7792480-014E-4DAF-A0A2-455D9FCBEEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B83AEA-E61A-4E3A-A5CD-604B5A33BF5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,106 +3811,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12431</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>702</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8356</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>702</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="7">
-        <v>32</v>
-      </c>
-      <c r="N4" s="7">
-        <v>20787</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>702</v>
+        <v>480</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1064</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>702</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -3919,13 +3919,13 @@
         <v>1391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3934,13 +3934,13 @@
         <v>621</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3949,163 +3949,163 @@
         <v>2012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12431</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="7">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8356</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" s="7">
         <v>32</v>
       </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1375</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1254</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7">
+        <v>20787</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2630</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2287</v>
+        <v>1375</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1254</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>670</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2957</v>
+        <v>2630</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>584</v>
+        <v>2287</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>480</v>
+        <v>670</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2957</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="7">
-        <v>2</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1064</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>207</v>
@@ -4170,304 +4170,304 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>20186</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13119</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="7">
-        <v>49</v>
-      </c>
-      <c r="N11" s="7">
-        <v>33304</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>7633</v>
+        <v>2836</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>685</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3521</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2637</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M13" s="7">
-        <v>14</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10270</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>2188</v>
+        <v>15360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>17590</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>46</v>
+      </c>
+      <c r="N14" s="7">
+        <v>32950</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2188</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1736</v>
+        <v>2041</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3640</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>1736</v>
+        <v>5681</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1304</v>
+        <v>1346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,10 +4476,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>33047</v>
+        <v>22262</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>52</v>
@@ -4491,10 +4491,10 @@
         <v>52</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>16445</v>
+        <v>23184</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>52</v>
@@ -4506,10 +4506,10 @@
         <v>52</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>49492</v>
+        <v>45446</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>52</v>
@@ -4523,103 +4523,103 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>15360</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>17590</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M18" s="7">
-        <v>46</v>
-      </c>
-      <c r="N18" s="7">
-        <v>32950</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1993</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>253</v>
@@ -4628,13 +4628,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>2836</v>
+        <v>7633</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>254</v>
@@ -4646,184 +4646,184 @@
         <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>685</v>
+        <v>2637</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>3521</v>
+        <v>10270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>2041</v>
+        <v>20186</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>3640</v>
+        <v>13119</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="N21" s="7">
-        <v>5681</v>
+        <v>33304</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>1346</v>
+        <v>2188</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2001</v>
+        <v>2188</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>680</v>
+        <v>1736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1292</v>
+        <v>1736</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>281</v>
@@ -4835,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>22262</v>
+        <v>33047</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>52</v>
@@ -4850,10 +4850,10 @@
         <v>52</v>
       </c>
       <c r="H24" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>23184</v>
+        <v>16445</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>52</v>
@@ -4865,10 +4865,10 @@
         <v>52</v>
       </c>
       <c r="M24" s="7">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N24" s="7">
-        <v>45446</v>
+        <v>49492</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>52</v>
@@ -4888,106 +4888,106 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>47977</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>702</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H25" s="7">
-        <v>56</v>
-      </c>
-      <c r="I25" s="7">
-        <v>39064</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>702</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M25" s="7">
-        <v>127</v>
-      </c>
-      <c r="N25" s="7">
-        <v>87041</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1782</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>702</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>7</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4349</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>702</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>15</v>
@@ -4996,13 +4996,13 @@
         <v>11860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -5011,13 +5011,13 @@
         <v>3943</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -5026,163 +5026,163 @@
         <v>15803</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>5604</v>
+        <v>47977</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H28" s="7">
+        <v>56</v>
+      </c>
+      <c r="I28" s="7">
+        <v>39064</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H28" s="7">
-        <v>7</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4895</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>127</v>
+      </c>
+      <c r="N28" s="7">
+        <v>87041</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M28" s="7">
-        <v>15</v>
-      </c>
-      <c r="N28" s="7">
-        <v>10499</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5604</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="7">
         <v>7</v>
       </c>
-      <c r="D29" s="7">
-        <v>5369</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>4895</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1326</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>15</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10499</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="M29" s="7">
-        <v>9</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6695</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>2567</v>
+        <v>5369</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>319</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>1782</v>
+        <v>1326</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>320</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6695</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M30" s="7">
-        <v>7</v>
-      </c>
-      <c r="N30" s="7">
-        <v>4349</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="P30" s="7" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>323</v>
@@ -5255,7 +5255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE429EB4-4CE0-4676-AC55-91C56F6139CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405EBD4-03B3-4947-87D3-B6FB4372DAB1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5373,106 +5373,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3865</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1059</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>4923</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>560</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1908</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5481,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5496,13 +5496,13 @@
         <v>613</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5511,136 +5511,136 @@
         <v>613</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>1908</v>
+        <v>3865</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1059</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>1908</v>
+        <v>4923</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>741</v>
+        <v>1908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1300</v>
+        <v>1908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1349</v>
+        <v>741</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5649,25 +5649,25 @@
         <v>560</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1908</v>
+        <v>1300</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>354</v>
@@ -5732,148 +5732,148 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>16333</v>
+        <v>626</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7">
-        <v>8382</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>626</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24715</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>617</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2678</v>
+        <v>1363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>366</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1455</v>
+        <v>3571</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>4133</v>
+        <v>4934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>371</v>
@@ -5882,73 +5882,73 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>1479</v>
+        <v>7517</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>617</v>
+        <v>4033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>2096</v>
+        <v>11550</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5957,79 +5957,79 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>217</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1619</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1302</v>
+        <v>601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>2920</v>
+        <v>601</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,40 +6038,40 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10754</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="7">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8822</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="7">
         <v>30</v>
       </c>
-      <c r="D17" s="7">
-        <v>22109</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11756</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="7">
-        <v>47</v>
-      </c>
       <c r="N17" s="7">
-        <v>33864</v>
+        <v>19576</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>52</v>
@@ -6085,154 +6085,154 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>7517</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>4033</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>11550</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>391</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>626</v>
+        <v>1619</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1302</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2920</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>626</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>1363</v>
+        <v>2678</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>398</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>3571</v>
+        <v>1455</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>6</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4133</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="M20" s="7">
-        <v>7</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4934</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>403</v>
@@ -6241,154 +6241,154 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>549</v>
+        <v>16333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>404</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>405</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>8382</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>406</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>407</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N21" s="7">
-        <v>549</v>
+        <v>24715</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>601</v>
+        <v>2096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1317</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,10 +6397,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>10754</v>
+        <v>22109</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>52</v>
@@ -6412,10 +6412,10 @@
         <v>52</v>
       </c>
       <c r="H24" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>8822</v>
+        <v>11756</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>52</v>
@@ -6427,10 +6427,10 @@
         <v>52</v>
       </c>
       <c r="M24" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>19576</v>
+        <v>33864</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>52</v>
@@ -6450,106 +6450,106 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>27714</v>
+        <v>626</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H25" s="7">
-        <v>21</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13474</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>626</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M25" s="7">
-        <v>60</v>
-      </c>
-      <c r="N25" s="7">
-        <v>41189</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>626</v>
+        <v>3667</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2478</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6145</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>626</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>6</v>
@@ -6558,13 +6558,13 @@
         <v>4041</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -6573,13 +6573,13 @@
         <v>5639</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -6588,157 +6588,157 @@
         <v>9680</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D28" s="7">
-        <v>3936</v>
+        <v>27714</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>440</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I28" s="7">
-        <v>617</v>
+        <v>13474</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>21</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="N28" s="7">
-        <v>4553</v>
+        <v>41189</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>276</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3936</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
-        <v>741</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
       <c r="I29" s="7">
-        <v>1160</v>
+        <v>617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>446</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>1901</v>
+        <v>4553</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>449</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>3667</v>
+        <v>741</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>453</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>2478</v>
+        <v>1160</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>455</v>
       </c>
       <c r="M30" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>6145</v>
+        <v>1901</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>456</v>
@@ -6817,7 +6817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860C59F3-D677-4A32-B101-9E085DE1EB38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAC1509-E13C-48F1-B643-EF9E1773DE0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,55 +6935,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>631</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1244</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6992,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7007,13 +7007,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7022,19 +7022,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -7043,13 +7043,13 @@
         <v>589</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7058,13 +7058,13 @@
         <v>406</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7073,166 +7073,166 @@
         <v>995</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>678</v>
+        <v>612</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>471</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>679</v>
+        <v>1244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
-        <v>347</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
       <c r="N8" s="7">
-        <v>913</v>
+        <v>679</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>477</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>347</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>480</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,55 +7294,55 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>6452</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>7791</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>14243</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>487</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>489</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -7351,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7366,13 +7366,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>490</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7381,172 +7381,172 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>4086</v>
+        <v>1979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1431</v>
+        <v>428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>5518</v>
+        <v>2407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>931</v>
+        <v>3871</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2870</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6741</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>931</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>2646</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>499</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1369</v>
+        <v>1272</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>1369</v>
+        <v>3917</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>505</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -7555,43 +7555,43 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>21</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,10 +7600,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>11469</v>
+        <v>8495</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>52</v>
@@ -7615,10 +7615,10 @@
         <v>52</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>10591</v>
+        <v>5226</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>52</v>
@@ -7630,10 +7630,10 @@
         <v>52</v>
       </c>
       <c r="M17" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>22060</v>
+        <v>13721</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>52</v>
@@ -7647,61 +7647,61 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>3871</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>506</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>2870</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>508</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>509</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>6741</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>511</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>512</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>513</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -7710,13 +7710,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7725,13 +7725,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>511</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7740,172 +7740,172 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>1979</v>
+        <v>4086</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1431</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>8</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5518</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>428</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2407</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>2646</v>
+        <v>6452</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H21" s="7">
+        <v>11</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7791</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>19</v>
+      </c>
+      <c r="N21" s="7">
+        <v>14243</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1272</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3917</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>530</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>656</v>
+        <v>931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -7914,43 +7914,43 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>225</v>
+        <v>531</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,10 +7959,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>8495</v>
+        <v>11469</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>52</v>
@@ -7974,10 +7974,10 @@
         <v>52</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>5226</v>
+        <v>10591</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>52</v>
@@ -7989,10 +7989,10 @@
         <v>52</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N24" s="7">
-        <v>13721</v>
+        <v>22060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>52</v>
@@ -8012,55 +8012,55 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>10935</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11292</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M25" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>22227</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>540</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>541</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8084,13 +8084,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8099,19 +8099,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>10</v>
@@ -8120,13 +8120,13 @@
         <v>6655</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -8135,13 +8135,13 @@
         <v>2265</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -8150,166 +8150,166 @@
         <v>8920</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D28" s="7">
-        <v>4255</v>
+        <v>10935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>1272</v>
+        <v>11292</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>21</v>
+        <v>546</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N28" s="7">
-        <v>5526</v>
+        <v>22227</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>565</v>
+        <v>4255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>552</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H29" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>2372</v>
+        <v>1272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>2937</v>
+        <v>5526</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>21</v>
+        <v>559</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>63</v>
+        <v>560</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>2372</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>21</v>
+        <v>564</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>22</v>
+        <v>565</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>255</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP11B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCF09E8-9BE5-4E6B-BC7C-FE53D45CD29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C483138-748F-4C95-ADDA-E1B9539FC79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00CE4D1D-8F67-40EB-A384-F995C18BBE37}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A13F53-C206-4554-BF7F-2ECD1A5D90B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="609">
   <si>
     <t>Menores según lesión producida por el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>33,59%</t>
   </si>
   <si>
-    <t>82,26%</t>
+    <t>84,17%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>34,89%</t>
+    <t>34,86%</t>
   </si>
   <si>
     <t>Heridas profundas</t>
@@ -101,1816 +101,1765 @@
     <t>9,66%</t>
   </si>
   <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>Contusiones, hematomas, esguinces, luxaciones</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Fracturas</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>Quemaduras</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>Contusiones, hematomas, esguinces, luxaciones</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>Fracturas</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>Quemaduras</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>16,12%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>37,01%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>33,06%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -2328,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30567AE-743B-4108-9783-2B5CC432149B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069175D6-D399-42A0-A1FB-49A7C1345800}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3996,7 +3945,7 @@
         <v>160</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -4005,13 +3954,13 @@
         <v>23173</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M34" s="7">
         <v>83</v>
@@ -4020,13 +3969,13 @@
         <v>55135</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +3990,13 @@
         <v>5993</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -4056,13 +4005,13 @@
         <v>4625</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -4071,13 +4020,13 @@
         <v>10619</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4041,13 @@
         <v>650</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4107,13 +4056,13 @@
         <v>674</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4122,13 +4071,13 @@
         <v>1324</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4092,13 @@
         <v>725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4164,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4173,13 +4122,13 @@
         <v>725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4184,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3DC917-F6B5-4C04-924A-E4B7C18F523F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B5FFB1-740B-456E-BC86-9A3EFB21D0F3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,7 +4221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4379,13 +4328,13 @@
         <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4409,13 +4358,13 @@
         <v>674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4379,13 @@
         <v>1375</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4445,13 +4394,13 @@
         <v>1254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4460,13 +4409,13 @@
         <v>2630</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4430,13 @@
         <v>6577</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -4496,13 +4445,13 @@
         <v>8356</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -4511,13 +4460,13 @@
         <v>14933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4496,13 @@
         <v>621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4562,13 +4511,13 @@
         <v>621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4532,13 @@
         <v>584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4598,13 +4547,13 @@
         <v>480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4613,13 +4562,13 @@
         <v>1064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,7 +4619,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4687,13 @@
         <v>2958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4753,13 +4702,13 @@
         <v>1326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4768,13 +4717,13 @@
         <v>4284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4738,13 @@
         <v>1367</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4804,13 +4753,13 @@
         <v>1963</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4819,13 +4768,13 @@
         <v>3330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4789,13 @@
         <v>19845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4855,13 +4804,13 @@
         <v>13182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4870,13 +4819,13 @@
         <v>33026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,10 +4840,10 @@
         <v>3388</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>247</v>
@@ -4927,7 +4876,7 @@
         <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4891,13 @@
         <v>680</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4957,13 +4906,13 @@
         <v>612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4972,13 +4921,13 @@
         <v>1292</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5008,13 +4957,13 @@
         <v>702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5023,13 +4972,13 @@
         <v>702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5046,13 @@
         <v>1111</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5118,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5127,13 +5076,13 @@
         <v>1111</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5097,13 @@
         <v>1622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5169,7 +5118,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5178,13 +5127,13 @@
         <v>3299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5148,13 @@
         <v>5389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -5214,13 +5163,13 @@
         <v>7794</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5229,13 +5178,13 @@
         <v>13182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5199,13 @@
         <v>3679</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5265,13 +5214,13 @@
         <v>1306</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5280,13 +5229,13 @@
         <v>4985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5250,13 @@
         <v>657</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5322,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5331,13 +5280,13 @@
         <v>657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5388,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5405,13 @@
         <v>626</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5486,13 +5435,13 @@
         <v>626</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5456,13 @@
         <v>1240</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5537,13 +5486,13 @@
         <v>1240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5507,13 @@
         <v>16166</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5573,13 +5522,13 @@
         <v>9734</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -5588,13 +5537,13 @@
         <v>25900</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5558,13 @@
         <v>4794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5624,13 +5573,13 @@
         <v>1331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5639,13 +5588,13 @@
         <v>6125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5609,13 @@
         <v>646</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5675,13 +5624,13 @@
         <v>689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5690,13 +5639,13 @@
         <v>1336</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5747,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5764,13 @@
         <v>5369</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5830,13 +5779,13 @@
         <v>1326</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -5845,13 +5794,13 @@
         <v>6695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5815,13 @@
         <v>5604</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -5881,13 +5830,13 @@
         <v>4895</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -5896,13 +5845,13 @@
         <v>10499</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5866,13 @@
         <v>47977</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>341</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -5932,13 +5881,13 @@
         <v>39064</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>127</v>
@@ -5947,13 +5896,13 @@
         <v>87041</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5917,13 @@
         <v>11860</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -5983,13 +5932,13 @@
         <v>3943</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -5998,13 +5947,13 @@
         <v>15803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>111</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +5968,13 @@
         <v>2567</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -6052,10 +6001,10 @@
         <v>361</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6085,13 +6034,13 @@
         <v>702</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6100,13 +6049,13 @@
         <v>702</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>368</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,7 +6111,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6182,7 +6131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2BDB6B-B7F8-43E7-89BB-937D4DC60198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2683BCFB-B618-4E8E-ACFF-EA785E6D51AE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6199,7 +6148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6306,7 +6255,7 @@
         <v>741</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -6321,7 +6270,7 @@
         <v>560</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -6336,13 +6285,13 @@
         <v>1300</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6378,7 +6327,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6408,7 +6357,7 @@
         <v>1283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -6429,7 +6378,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6438,13 +6387,13 @@
         <v>1283</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,7 +6414,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6480,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6510,13 +6459,13 @@
         <v>715</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>376</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6525,7 +6474,7 @@
         <v>560</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -6540,13 +6489,13 @@
         <v>1274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6582,7 +6531,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6680,13 +6629,13 @@
         <v>601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6695,13 +6644,13 @@
         <v>601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,28 +6665,28 @@
         <v>2457</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -6746,13 +6695,13 @@
         <v>2457</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6716,13 @@
         <v>6300</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6782,13 +6731,13 @@
         <v>2040</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -6797,13 +6746,13 @@
         <v>8340</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6767,13 @@
         <v>1363</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6833,13 +6782,13 @@
         <v>3706</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6848,13 +6797,13 @@
         <v>5068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6818,13 @@
         <v>634</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6890,7 +6839,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6899,13 +6848,13 @@
         <v>634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6869,13 @@
         <v>626</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6941,7 +6890,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6950,13 +6899,13 @@
         <v>626</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +6994,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7060,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,7 +7045,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7111,7 +7060,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,10 +7075,10 @@
         <v>11491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>27</v>
@@ -7141,13 +7090,13 @@
         <v>4512</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -7156,13 +7105,13 @@
         <v>16003</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7141,13 @@
         <v>479</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -7207,13 +7156,13 @@
         <v>479</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7177,13 @@
         <v>700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7243,13 +7192,13 @@
         <v>1274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7258,13 +7207,13 @@
         <v>1974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7315,7 +7264,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7368,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7383,13 @@
         <v>1479</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7449,13 +7398,13 @@
         <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7464,13 +7413,13 @@
         <v>2096</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>425</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7434,13 @@
         <v>8639</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -7500,13 +7449,13 @@
         <v>6923</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -7515,13 +7464,13 @@
         <v>15562</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7485,13 @@
         <v>2678</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7551,13 +7500,13 @@
         <v>1455</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7566,13 +7515,13 @@
         <v>4133</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7536,13 @@
         <v>1619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>286</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7602,13 +7551,13 @@
         <v>644</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -7617,13 +7566,13 @@
         <v>2263</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>56</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,7 +7623,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7691,13 @@
         <v>741</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7757,13 +7706,13 @@
         <v>1160</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -7772,13 +7721,13 @@
         <v>1901</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>470</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,10 +7745,10 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -7808,13 +7757,13 @@
         <v>617</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -7823,13 +7772,13 @@
         <v>4553</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7793,13 @@
         <v>27714</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -7859,13 +7808,13 @@
         <v>13474</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -7874,13 +7823,13 @@
         <v>41189</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7844,13 @@
         <v>4041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -7910,13 +7859,13 @@
         <v>5639</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -7925,13 +7874,13 @@
         <v>9680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7895,13 @@
         <v>3667</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -7961,13 +7910,13 @@
         <v>2478</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -7976,13 +7925,13 @@
         <v>6145</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7946,13 @@
         <v>626</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8018,7 +7967,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -8027,13 +7976,13 @@
         <v>626</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8038,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -8109,7 +8058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE6641D-3D28-4534-AD9B-2BF9446D9B2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF7696E-4909-45AB-925B-97B825C54FB6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8126,7 +8075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8239,7 +8188,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -8248,7 +8197,7 @@
         <v>347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -8263,13 +8212,13 @@
         <v>347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,7 +8233,7 @@
         <v>678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>504</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -8305,7 +8254,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8314,13 +8263,13 @@
         <v>678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>512</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8356,7 +8305,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8371,7 +8320,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,7 +8335,7 @@
         <v>590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -8401,7 +8350,7 @@
         <v>406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -8416,7 +8365,7 @@
         <v>995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -8443,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8458,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8473,7 +8422,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8509,7 +8458,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8524,7 +8473,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8541,13 @@
         <v>565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8607,13 +8556,13 @@
         <v>656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -8622,13 +8571,13 @@
         <v>1221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8592,13 @@
         <v>935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -8658,13 +8607,13 @@
         <v>843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>90</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -8673,13 +8622,13 @@
         <v>1778</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8694,13 +8643,13 @@
         <v>2086</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -8709,13 +8658,13 @@
         <v>1855</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -8724,13 +8673,13 @@
         <v>3941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8745,13 +8694,13 @@
         <v>1440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -8760,13 +8709,13 @@
         <v>428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8775,13 +8724,13 @@
         <v>1868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,7 +8751,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8853,7 +8802,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8957,7 +8906,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8972,7 +8921,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9002,13 +8951,13 @@
         <v>1711</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9017,13 +8966,13 @@
         <v>428</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -9032,13 +8981,13 @@
         <v>2139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>549</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,13 +9002,13 @@
         <v>3884</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -9068,10 +9017,10 @@
         <v>3880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>555</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>27</v>
@@ -9083,13 +9032,13 @@
         <v>7763</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,13 +9053,13 @@
         <v>1892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -9119,13 +9068,13 @@
         <v>642</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -9134,13 +9083,13 @@
         <v>2534</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>565</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9161,7 +9110,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9176,7 +9125,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9212,7 +9161,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9227,7 +9176,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9325,13 +9274,13 @@
         <v>1369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -9340,13 +9289,13 @@
         <v>1369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9361,13 +9310,13 @@
         <v>931</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>571</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9391,13 +9340,13 @@
         <v>931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9412,13 +9361,13 @@
         <v>4965</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -9427,13 +9376,13 @@
         <v>5558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>579</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -9442,13 +9391,13 @@
         <v>10523</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,13 +9412,13 @@
         <v>2733</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9478,13 +9427,13 @@
         <v>789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -9493,13 +9442,13 @@
         <v>3523</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9550,7 +9499,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9601,7 +9550,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,13 +9618,13 @@
         <v>565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9684,13 +9633,13 @@
         <v>2372</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>251</v>
+        <v>580</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -9699,13 +9648,13 @@
         <v>2937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,13 +9669,13 @@
         <v>4255</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>144</v>
+        <v>586</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -9735,13 +9684,13 @@
         <v>1272</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -9750,13 +9699,13 @@
         <v>5526</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>603</v>
+        <v>323</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9771,13 +9720,13 @@
         <v>10935</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -9786,13 +9735,13 @@
         <v>11292</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -9801,13 +9750,13 @@
         <v>22227</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9822,13 +9771,13 @@
         <v>6655</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -9837,13 +9786,13 @@
         <v>2265</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>619</v>
+        <v>408</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -9852,13 +9801,13 @@
         <v>8920</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>623</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9894,7 +9843,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9909,7 +9858,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9945,7 +9894,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9960,7 +9909,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10016,7 +9965,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
